--- a/AI/annxor.xlsx
+++ b/AI/annxor.xlsx
@@ -981,7 +981,7 @@
   <dimension ref="A1:AB11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="X18" sqref="X18"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1206,7 +1206,7 @@
         <v>20</v>
       </c>
       <c r="E3" s="8">
-        <f>E2</f>
+        <f>E$2</f>
         <v>0</v>
       </c>
       <c r="F3" s="9">

--- a/AI/annxor.xlsx
+++ b/AI/annxor.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19001"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
@@ -981,7 +981,7 @@
   <dimension ref="A1:AB11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1110,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="31">
-        <v>20</v>
+        <v>99</v>
       </c>
       <c r="E2" s="14">
         <v>0</v>
@@ -1119,35 +1119,35 @@
         <v>0</v>
       </c>
       <c r="G2" s="16">
-        <v>-20</v>
+        <v>-99</v>
       </c>
       <c r="H2" s="13">
-        <v>-20</v>
+        <v>-99</v>
       </c>
       <c r="I2" s="14">
-        <v>-20</v>
+        <v>-99</v>
       </c>
       <c r="J2" s="15">
-        <v>20</v>
+        <v>99</v>
       </c>
       <c r="K2" s="16">
-        <v>20</v>
+        <v>99</v>
       </c>
       <c r="L2" s="13">
-        <v>-20</v>
+        <v>-99</v>
       </c>
       <c r="M2" s="14">
-        <v>20</v>
+        <v>99</v>
       </c>
       <c r="N2" s="15">
-        <v>-20</v>
+        <v>-99</v>
       </c>
       <c r="O2" s="45">
-        <v>20</v>
+        <v>99</v>
       </c>
       <c r="P2" s="61">
         <f>$A2*D2+$B2*H2+$C2*L2</f>
-        <v>20</v>
+        <v>99</v>
       </c>
       <c r="Q2" s="62">
         <f>$A2*E2+$B2*I2+$C2*M2</f>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="S2" s="63">
         <f>$A2*G2+$B2*K2+$C2*O2</f>
-        <v>-20</v>
+        <v>-99</v>
       </c>
       <c r="T2" s="42">
         <v>1</v>
@@ -1203,7 +1203,7 @@
       </c>
       <c r="D3" s="7">
         <f t="shared" ref="D3:O5" si="0">D$2</f>
-        <v>20</v>
+        <v>99</v>
       </c>
       <c r="E3" s="8">
         <f>E$2</f>
@@ -1215,39 +1215,39 @@
       </c>
       <c r="G3" s="10">
         <f t="shared" si="0"/>
-        <v>-20</v>
+        <v>-99</v>
       </c>
       <c r="H3" s="7">
         <f t="shared" si="0"/>
-        <v>-20</v>
+        <v>-99</v>
       </c>
       <c r="I3" s="8">
         <f t="shared" si="0"/>
-        <v>-20</v>
+        <v>-99</v>
       </c>
       <c r="J3" s="9">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>99</v>
       </c>
       <c r="K3" s="10">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>99</v>
       </c>
       <c r="L3" s="7">
         <f t="shared" si="0"/>
-        <v>-20</v>
+        <v>-99</v>
       </c>
       <c r="M3" s="8">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>99</v>
       </c>
       <c r="N3" s="9">
         <f t="shared" si="0"/>
-        <v>-20</v>
+        <v>-99</v>
       </c>
       <c r="O3" s="10">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>99</v>
       </c>
       <c r="P3" s="61">
         <f t="shared" ref="P3:P5" si="1">$A3*D3+$B3*H3+$C3*L3</f>
@@ -1255,11 +1255,11 @@
       </c>
       <c r="Q3" s="62">
         <f t="shared" ref="Q3:Q5" si="2">$A3*E3+$B3*I3+$C3*M3</f>
-        <v>20</v>
+        <v>99</v>
       </c>
       <c r="R3" s="62">
         <f t="shared" ref="R3:R5" si="3">$A3*F3+$B3*J3+$C3*N3</f>
-        <v>-20</v>
+        <v>-99</v>
       </c>
       <c r="S3" s="63">
         <f t="shared" ref="S3:S5" si="4">$A3*G3+$B3*K3+$C3*O3</f>
@@ -1307,7 +1307,7 @@
       </c>
       <c r="D4" s="2">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>99</v>
       </c>
       <c r="E4" s="3">
         <f t="shared" si="0"/>
@@ -1319,39 +1319,39 @@
       </c>
       <c r="G4" s="5">
         <f t="shared" si="0"/>
-        <v>-20</v>
+        <v>-99</v>
       </c>
       <c r="H4" s="2">
         <f t="shared" si="0"/>
-        <v>-20</v>
+        <v>-99</v>
       </c>
       <c r="I4" s="3">
         <f t="shared" si="0"/>
-        <v>-20</v>
+        <v>-99</v>
       </c>
       <c r="J4" s="4">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>99</v>
       </c>
       <c r="K4" s="5">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>99</v>
       </c>
       <c r="L4" s="2">
         <f t="shared" si="0"/>
-        <v>-20</v>
+        <v>-99</v>
       </c>
       <c r="M4" s="3">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>99</v>
       </c>
       <c r="N4" s="4">
         <f t="shared" si="0"/>
-        <v>-20</v>
+        <v>-99</v>
       </c>
       <c r="O4" s="5">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>99</v>
       </c>
       <c r="P4" s="61">
         <f t="shared" si="1"/>
@@ -1359,11 +1359,11 @@
       </c>
       <c r="Q4" s="62">
         <f t="shared" si="2"/>
-        <v>-20</v>
+        <v>-99</v>
       </c>
       <c r="R4" s="62">
         <f t="shared" si="3"/>
-        <v>20</v>
+        <v>99</v>
       </c>
       <c r="S4" s="63">
         <f t="shared" si="4"/>
@@ -1411,7 +1411,7 @@
       </c>
       <c r="D5" s="46">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>99</v>
       </c>
       <c r="E5" s="20">
         <f t="shared" si="0"/>
@@ -1423,43 +1423,43 @@
       </c>
       <c r="G5" s="47">
         <f t="shared" si="0"/>
-        <v>-20</v>
+        <v>-99</v>
       </c>
       <c r="H5" s="46">
         <f t="shared" si="0"/>
-        <v>-20</v>
+        <v>-99</v>
       </c>
       <c r="I5" s="20">
         <f t="shared" si="0"/>
-        <v>-20</v>
+        <v>-99</v>
       </c>
       <c r="J5" s="28">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>99</v>
       </c>
       <c r="K5" s="47">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>99</v>
       </c>
       <c r="L5" s="46">
         <f t="shared" si="0"/>
-        <v>-20</v>
+        <v>-99</v>
       </c>
       <c r="M5" s="20">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>99</v>
       </c>
       <c r="N5" s="28">
         <f t="shared" si="0"/>
-        <v>-20</v>
+        <v>-99</v>
       </c>
       <c r="O5" s="47">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>99</v>
       </c>
       <c r="P5" s="64">
         <f t="shared" si="1"/>
-        <v>-20</v>
+        <v>-99</v>
       </c>
       <c r="Q5" s="65">
         <f t="shared" si="2"/>
@@ -1471,7 +1471,7 @@
       </c>
       <c r="S5" s="66">
         <f t="shared" si="4"/>
-        <v>20</v>
+        <v>99</v>
       </c>
       <c r="T5" s="39">
         <v>0</v>
@@ -1560,7 +1560,7 @@
       </c>
       <c r="F8" s="21">
         <f>D2</f>
-        <v>20</v>
+        <v>99</v>
       </c>
       <c r="G8" s="19">
         <f>E2</f>
@@ -1572,7 +1572,7 @@
       </c>
       <c r="I8" s="22">
         <f>G2</f>
-        <v>-20</v>
+        <v>-99</v>
       </c>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.25">
@@ -1581,19 +1581,19 @@
       </c>
       <c r="F9" s="23">
         <f>H2</f>
-        <v>-20</v>
+        <v>-99</v>
       </c>
       <c r="G9" s="3">
         <f>I2</f>
-        <v>-20</v>
+        <v>-99</v>
       </c>
       <c r="H9" s="4">
         <f>J2</f>
-        <v>20</v>
+        <v>99</v>
       </c>
       <c r="I9" s="24">
         <f>K2</f>
-        <v>20</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:28" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -1602,19 +1602,19 @@
       </c>
       <c r="F10" s="25">
         <f>L2</f>
-        <v>-20</v>
+        <v>-99</v>
       </c>
       <c r="G10" s="20">
         <f>M2</f>
-        <v>20</v>
+        <v>99</v>
       </c>
       <c r="H10" s="28">
         <f>N2</f>
-        <v>-20</v>
+        <v>-99</v>
       </c>
       <c r="I10" s="26">
         <f>O2</f>
-        <v>20</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.25">
